--- a/src/_07_ForLoop/forLoop.xlsx
+++ b/src/_07_ForLoop/forLoop.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeni/IdeaProjects/JavaStudy/src/_05_ForLoop/Cozumler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeni/eclipse-workspace/summer2021Practice/src/_07_ForLoop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46011BF-694F-AB47-94FF-E25DD6FFA63C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7749F549-0B00-894B-86BB-66549BBE87E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28100" windowHeight="16420" xr2:uid="{9730A2AD-9D2C-BB43-AB8A-AC611F9808B5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="4" xr2:uid="{9730A2AD-9D2C-BB43-AB8A-AC611F9808B5}"/>
   </bookViews>
   <sheets>
     <sheet name="for" sheetId="1" r:id="rId1"/>
-    <sheet name="soru-4 " sheetId="3" r:id="rId2"/>
-    <sheet name="soru-5" sheetId="4" r:id="rId3"/>
-    <sheet name="soru-7" sheetId="5" r:id="rId4"/>
-    <sheet name="soru-8" sheetId="6" r:id="rId5"/>
-    <sheet name="soru-11" sheetId="8" r:id="rId6"/>
-    <sheet name="soru-12" sheetId="9" r:id="rId7"/>
-    <sheet name="soru-13" sheetId="10" r:id="rId8"/>
-    <sheet name="soru-14" sheetId="11" r:id="rId9"/>
-    <sheet name="soru-21" sheetId="2" r:id="rId10"/>
+    <sheet name="Q07" sheetId="3" r:id="rId2"/>
+    <sheet name="Q14" sheetId="4" r:id="rId3"/>
+    <sheet name="Q15" sheetId="5" r:id="rId4"/>
+    <sheet name="Q16" sheetId="6" r:id="rId5"/>
+    <sheet name="Q18" sheetId="10" r:id="rId6"/>
+    <sheet name="Q19" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="49">
   <si>
     <t>1.sutun</t>
   </si>
@@ -135,18 +132,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>4 boşluk 1 yıldız</t>
-  </si>
-  <si>
-    <t>3 boşluk 2 yıldız</t>
-  </si>
-  <si>
-    <t>0 boşluk 5 yıldız</t>
-  </si>
-  <si>
-    <t>boşulk=sayı -satır</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -171,29 +156,35 @@
     <t>8.satr</t>
   </si>
   <si>
-    <t>4 b 1 y</t>
-  </si>
-  <si>
     <t>3b 2y</t>
   </si>
   <si>
-    <t>3b2y</t>
-  </si>
-  <si>
-    <t>5 satır</t>
-  </si>
-  <si>
-    <t>ob 5y</t>
-  </si>
-  <si>
-    <t>satır</t>
+    <t>3b 2yb</t>
+  </si>
+  <si>
+    <t>4b 1yb</t>
+  </si>
+  <si>
+    <t>0b 4by</t>
+  </si>
+  <si>
+    <t>4b 1y</t>
+  </si>
+  <si>
+    <t>2b 3y</t>
+  </si>
+  <si>
+    <t>1b 4y</t>
+  </si>
+  <si>
+    <t>0b 5y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -267,16 +258,8 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +276,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -320,15 +327,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -352,11 +350,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,9 +379,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,13 +386,25 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220D6F3E-E7DF-5C4B-A37F-B5B9CA0ECF86}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I9"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,7 +733,7 @@
     <col min="19" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
@@ -739,7 +757,7 @@
       </c>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +781,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -783,23 +801,8 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -819,24 +822,8 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="L4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="S4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -856,23 +843,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="L5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="S5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -888,22 +860,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="L6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -917,24 +875,8 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="L7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -943,34 +885,15 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="L8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -983,233 +906,9 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98419925-CB2F-154D-BAE3-7E6982A60B36}">
-  <dimension ref="B3:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1222,7 +921,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,7 +984,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="4">
@@ -1317,7 +1016,7 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="4">
@@ -1349,7 +1048,7 @@
       <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="4">
@@ -1381,7 +1080,7 @@
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="4">
@@ -1413,7 +1112,7 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>1</v>
       </c>
       <c r="H7" s="4">
@@ -1445,7 +1144,7 @@
       <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
       <c r="I8" s="4">
@@ -1477,7 +1176,7 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1488,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD24014-12ED-B743-B0BA-865284F8C3B1}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J8"/>
+    <sheetView topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1501,7 +1200,7 @@
     <col min="3" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,56 +1235,53 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>45</v>
       </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
@@ -1595,18 +1291,18 @@
       <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
@@ -1619,8 +1315,11 @@
       <c r="G6" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1642,11 +1341,8 @@
       <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>50</v>
+      <c r="H7" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1659,14 +1355,14 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1685,11 +1381,11 @@
       <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,15 +1413,15 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1734,17 +1430,17 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1753,19 +1449,19 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1774,21 +1470,21 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1797,23 +1493,23 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1822,36 +1518,36 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1862,15 +1558,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60480F88-F8DD-9048-B1F6-2D4C74EDB00C}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
@@ -1891,8 +1587,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1919,14 +1615,14 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1935,16 +1631,16 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1953,18 +1649,18 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1973,20 +1669,20 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1995,22 +1691,22 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -2019,23 +1715,23 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>42</v>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2044,561 +1740,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A51545E-9CCF-F54D-9C2B-AA312EF64DEA}">
-  <dimension ref="A1:S9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-    </row>
-    <row r="4" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CE8D94-E3D5-764D-9918-06BC42002F56}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E656F59-1837-1A4A-AAFF-3D2D6F0172CB}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -2830,10 +1971,10 @@
     </row>
     <row r="10" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4">
         <v>29</v>
@@ -2866,146 +2007,237 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3761E29D-E7E7-474C-9B79-2E1EFE5C2247}">
-  <dimension ref="A1:G7"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98419925-CB2F-154D-BAE3-7E6982A60B36}">
+  <dimension ref="B3:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="2" t="s">
+    <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4">
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4">
-        <v>15</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>